--- a/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
+++ b/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -1916,6 +1916,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1940,13 +1949,13 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1973,23 +1982,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,20 +2024,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2035,36 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,10 +2761,10 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,20 +2840,20 @@
     </row>
     <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
     </row>
@@ -2861,57 +2861,57 @@
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
-      <c r="B7" s="134" t="str">
+      <c r="B7" s="126" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
-        <v>Kỳ tính thuế: Quý 4 Năm 2014</v>
-      </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
+        <v>Kỳ tính thuế: Quý 1 Năm 2014</v>
+      </c>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
     </row>
@@ -2972,51 +2972,51 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="130" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="H12" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="130" t="s">
+      <c r="I12" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="130" t="s">
+      <c r="J12" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="131" t="s">
+      <c r="K12" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="130" t="s">
+      <c r="L12" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="130" t="s">
+      <c r="M12" s="133" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="37"/>
@@ -3024,24 +3024,24 @@
     </row>
     <row r="13" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
-      <c r="B14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="43" t="s">
         <v>43</v>
       </c>
@@ -3054,16 +3054,16 @@
       <c r="F14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
       <c r="N14" s="37"/>
       <c r="O14" s="123">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="49">
         <f>IF(G17&lt;&gt;"",ROW()-16,"")</f>
@@ -3168,7 +3168,7 @@
       <c r="N17" s="58"/>
       <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="49">
         <f t="shared" ref="B18:B62" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
@@ -3204,13 +3204,13 @@
       <c r="L18" s="65">
         <v>29309</v>
       </c>
-      <c r="M18" s="66">
+      <c r="M18" s="57">
         <v>1</v>
       </c>
       <c r="N18" s="58"/>
       <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="49">
         <f t="shared" si="2"/>
@@ -3246,7 +3246,7 @@
       <c r="L19" s="65">
         <v>76800</v>
       </c>
-      <c r="M19" s="66">
+      <c r="M19" s="57">
         <v>1</v>
       </c>
       <c r="N19" s="58"/>
@@ -3294,7 +3294,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="49">
         <f t="shared" si="2"/>
@@ -3330,7 +3330,7 @@
       <c r="L21" s="65">
         <v>32546</v>
       </c>
-      <c r="M21" s="66">
+      <c r="M21" s="57">
         <v>1</v>
       </c>
       <c r="N21" s="58"/>
@@ -3672,7 +3672,7 @@
       <c r="N29" s="58"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="49">
         <f t="shared" si="2"/>
@@ -3714,7 +3714,7 @@
       <c r="N30" s="58"/>
       <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="49">
         <f t="shared" si="2"/>
@@ -3750,13 +3750,13 @@
       <c r="L31" s="65">
         <v>2273750</v>
       </c>
-      <c r="M31" s="66">
+      <c r="M31" s="57">
         <v>1</v>
       </c>
       <c r="N31" s="58"/>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="49">
         <f t="shared" si="2"/>
@@ -3792,13 +3792,13 @@
       <c r="L32" s="65">
         <v>2327250</v>
       </c>
-      <c r="M32" s="66">
+      <c r="M32" s="57">
         <v>1</v>
       </c>
       <c r="N32" s="58"/>
       <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="49">
         <f t="shared" si="2"/>
@@ -3834,13 +3834,13 @@
       <c r="L33" s="65">
         <v>1070000</v>
       </c>
-      <c r="M33" s="66">
-        <v>2</v>
+      <c r="M33" s="57">
+        <v>1</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="49">
         <f t="shared" si="2"/>
@@ -3876,13 +3876,13 @@
       <c r="L34" s="65">
         <v>9317125</v>
       </c>
-      <c r="M34" s="66">
+      <c r="M34" s="57">
         <v>1</v>
       </c>
       <c r="N34" s="58"/>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="49">
         <f t="shared" si="2"/>
@@ -3918,13 +3918,13 @@
       <c r="L35" s="65">
         <v>536660</v>
       </c>
-      <c r="M35" s="66">
+      <c r="M35" s="57">
         <v>1</v>
       </c>
       <c r="N35" s="58"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="49">
         <f t="shared" si="2"/>
@@ -3960,13 +3960,13 @@
       <c r="L36" s="65">
         <v>1798574</v>
       </c>
-      <c r="M36" s="66">
+      <c r="M36" s="57">
         <v>1</v>
       </c>
       <c r="N36" s="58"/>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="49">
         <f t="shared" si="2"/>
@@ -4002,13 +4002,13 @@
       <c r="L37" s="65">
         <v>658200</v>
       </c>
-      <c r="M37" s="66">
+      <c r="M37" s="57">
         <v>1</v>
       </c>
       <c r="N37" s="58"/>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="49">
         <f t="shared" si="2"/>
@@ -4044,13 +4044,13 @@
       <c r="L38" s="65">
         <v>951635</v>
       </c>
-      <c r="M38" s="66">
+      <c r="M38" s="57">
         <v>1</v>
       </c>
       <c r="N38" s="58"/>
       <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="49">
         <f t="shared" si="2"/>
@@ -4086,13 +4086,13 @@
       <c r="L39" s="65">
         <v>1726555</v>
       </c>
-      <c r="M39" s="66">
+      <c r="M39" s="57">
         <v>1</v>
       </c>
       <c r="N39" s="58"/>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="49">
         <f t="shared" si="2"/>
@@ -4126,15 +4126,15 @@
         <v>0.1</v>
       </c>
       <c r="L40" s="119">
-        <v>1055604</v>
-      </c>
-      <c r="M40" s="66">
+        <v>1055664</v>
+      </c>
+      <c r="M40" s="57">
         <v>1</v>
       </c>
       <c r="N40" s="58"/>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="49">
         <f t="shared" si="2"/>
@@ -4170,13 +4170,13 @@
       <c r="L41" s="65">
         <v>1722594</v>
       </c>
-      <c r="M41" s="66">
+      <c r="M41" s="57">
         <v>1</v>
       </c>
       <c r="N41" s="58"/>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="49">
         <f t="shared" si="2"/>
@@ -4212,13 +4212,13 @@
       <c r="L42" s="65">
         <v>1809036</v>
       </c>
-      <c r="M42" s="66">
+      <c r="M42" s="57">
         <v>1</v>
       </c>
       <c r="N42" s="58"/>
       <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="49">
         <f t="shared" si="2"/>
@@ -4254,13 +4254,13 @@
       <c r="L43" s="65">
         <v>9992640</v>
       </c>
-      <c r="M43" s="66">
+      <c r="M43" s="57">
         <v>1</v>
       </c>
       <c r="N43" s="58"/>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="49">
         <f t="shared" si="2"/>
@@ -4296,7 +4296,7 @@
       <c r="L44" s="65">
         <v>1660241</v>
       </c>
-      <c r="M44" s="66">
+      <c r="M44" s="57">
         <v>1</v>
       </c>
       <c r="N44" s="58"/>
@@ -4638,7 +4638,7 @@
       <c r="N52" s="58"/>
       <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="49">
         <f t="shared" si="2"/>
@@ -4674,7 +4674,7 @@
       <c r="L53" s="65">
         <v>1740960</v>
       </c>
-      <c r="M53" s="66">
+      <c r="M53" s="57">
         <v>1</v>
       </c>
       <c r="N53" s="58"/>
@@ -4764,7 +4764,7 @@
       <c r="N55" s="58"/>
       <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="49">
         <f t="shared" si="2"/>
@@ -4806,7 +4806,7 @@
       <c r="N56" s="58"/>
       <c r="O56" s="59"/>
     </row>
-    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="49">
         <f t="shared" si="2"/>
@@ -4848,7 +4848,7 @@
       <c r="N57" s="58"/>
       <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
       <c r="B58" s="49">
         <f t="shared" si="2"/>
@@ -4890,7 +4890,7 @@
       <c r="N58" s="58"/>
       <c r="O58" s="59"/>
     </row>
-    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
       <c r="B59" s="49">
         <f t="shared" si="2"/>
@@ -4932,7 +4932,7 @@
       <c r="N59" s="58"/>
       <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
       <c r="B60" s="49">
         <f t="shared" si="2"/>
@@ -4974,7 +4974,7 @@
       <c r="N60" s="58"/>
       <c r="O60" s="59"/>
     </row>
-    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
       <c r="B61" s="49">
         <f t="shared" si="2"/>
@@ -5016,7 +5016,7 @@
       <c r="N61" s="58"/>
       <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
       <c r="B62" s="49">
         <f t="shared" si="2"/>
@@ -5089,12 +5089,12 @@
       <c r="I64" s="71"/>
       <c r="J64" s="73">
         <f>SUBTOTAL(9,J17:J63)</f>
-        <v>119621213</v>
+        <v>397794789</v>
       </c>
       <c r="K64" s="73"/>
       <c r="L64" s="73">
         <f>SUBTOTAL(9,L17:L63)</f>
-        <v>11962121</v>
+        <v>39779539</v>
       </c>
       <c r="M64" s="71"/>
       <c r="N64" s="59"/>
@@ -5349,7 +5349,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="114">
         <f>J64</f>
-        <v>119621213</v>
+        <v>397794789</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="37"/>
@@ -5371,7 +5371,7 @@
       <c r="G79" s="38"/>
       <c r="H79" s="114">
         <f>L64</f>
-        <v>11962121</v>
+        <v>39779539</v>
       </c>
       <c r="I79" s="38"/>
       <c r="J79" s="37"/>
@@ -5410,7 +5410,7 @@
       <c r="I81" s="38"/>
       <c r="J81" s="118" t="str">
         <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F62)</f>
-        <v>Bình Dương, Ngày 31 Tháng 12  Năm  2014</v>
+        <v>Bình Dương, Ngày 31 Tháng 03  Năm  2014</v>
       </c>
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
@@ -5496,25 +5496,25 @@
   <autoFilter ref="A16:Q62">
     <filterColumn colId="12">
       <filters>
-        <filter val="4"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="M12:M14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0"/>
@@ -5532,8 +5532,8 @@
   </sheetPr>
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
@@ -5588,66 +5588,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="str">
+      <c r="B7" s="137" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý 4 Năm 2014</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -5671,62 +5671,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="138" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="138" t="s">
+      <c r="L12" s="141" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="138"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="138"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -5739,12 +5739,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
       <c r="N14" s="122">
         <v>4</v>
       </c>
@@ -5785,16 +5785,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
@@ -5828,16 +5828,16 @@
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="26"/>
@@ -5871,16 +5871,16 @@
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="26"/>
@@ -5928,7 +5928,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -8629,7 +8629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -8666,7 +8666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -8703,7 +8703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -8740,7 +8740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -8777,7 +8777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -8814,7 +8814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -8851,7 +8851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -8888,7 +8888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -8925,7 +8925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -8962,7 +8962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="10">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -8999,7 +8999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="10">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -9036,7 +9036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -9073,7 +9073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -9110,7 +9110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -9147,7 +9147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -9184,7 +9184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="10">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -9221,7 +9221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="10">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -9258,7 +9258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="10">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -9295,7 +9295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="10">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -9332,7 +9332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10">
         <f t="shared" si="3"/>
         <v>93</v>
@@ -9369,7 +9369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="10">
         <f t="shared" si="3"/>
         <v>94</v>
@@ -9406,7 +9406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="10">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -9443,7 +9443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -9480,7 +9480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="10">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -9546,26 +9546,26 @@
       <c r="I124" s="29"/>
       <c r="J124" s="30">
         <f>SUBTOTAL(9,J26:J123)</f>
-        <v>149444175</v>
+        <v>436029258</v>
       </c>
       <c r="K124" s="30">
         <f>SUBTOTAL(9,K26:K123)</f>
-        <v>14944418</v>
+        <v>43602926</v>
       </c>
       <c r="L124" s="116"/>
     </row>
     <row r="125" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="126" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="135" t="s">
+      <c r="B126" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
-      <c r="E126" s="136"/>
-      <c r="F126" s="136"/>
-      <c r="G126" s="136"/>
-      <c r="H126" s="136"/>
-      <c r="I126" s="136"/>
+      <c r="C126" s="139"/>
+      <c r="D126" s="139"/>
+      <c r="E126" s="139"/>
+      <c r="F126" s="139"/>
+      <c r="G126" s="139"/>
+      <c r="H126" s="139"/>
+      <c r="I126" s="139"/>
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
       <c r="L126" s="26"/>
@@ -9609,7 +9609,7 @@
       <c r="G129" s="16"/>
       <c r="H129" s="114">
         <f>J124</f>
-        <v>149444175</v>
+        <v>436029258</v>
       </c>
       <c r="I129" s="16"/>
       <c r="L129" s="16"/>
@@ -9625,7 +9625,7 @@
       <c r="G130" s="16"/>
       <c r="H130" s="114">
         <f>K124</f>
-        <v>14944418</v>
+        <v>43602926</v>
       </c>
       <c r="I130" s="16"/>
       <c r="L130" s="16"/>
@@ -9715,16 +9715,11 @@
   <autoFilter ref="A25:L123">
     <filterColumn colId="11">
       <filters>
-        <filter val="4"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B126:I126"/>
@@ -9737,6 +9732,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -9774,23 +9774,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
       <c r="R2" s="12" t="s">
         <v>149</v>
       </c>
@@ -9799,23 +9799,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="154"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
       <c r="R3" s="12" t="s">
         <v>140</v>
       </c>
@@ -9825,22 +9825,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="96"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="155"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="151"/>
       <c r="R4" s="12" t="s">
         <v>142</v>
       </c>
@@ -9850,22 +9850,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="96"/>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="155"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="151"/>
       <c r="R5" s="12" t="s">
         <v>144</v>
       </c>
@@ -9876,21 +9876,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="96"/>
       <c r="C6" s="97"/>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="148"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="147"/>
       <c r="R6" s="12" t="s">
         <v>163</v>
       </c>
@@ -9901,21 +9901,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
       <c r="C7" s="97"/>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="148"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
       <c r="R7" s="12" t="s">
         <v>146</v>
       </c>
@@ -9926,21 +9926,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="96"/>
       <c r="C8" s="97"/>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
       <c r="R8" s="12" t="s">
         <v>151</v>
       </c>
@@ -9951,21 +9951,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="96"/>
       <c r="C9" s="97"/>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="148"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="147"/>
       <c r="R9" s="12" t="s">
         <v>165</v>
       </c>
@@ -9976,21 +9976,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="96"/>
       <c r="C10" s="97"/>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="148"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="147"/>
       <c r="R10" s="12" t="s">
         <v>93</v>
       </c>
@@ -10000,22 +10000,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="96"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="155"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="151"/>
       <c r="R11" s="12" t="s">
         <v>166</v>
       </c>
@@ -10025,22 +10025,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="96"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="155"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
       <c r="R12" s="12" t="s">
         <v>168</v>
       </c>
@@ -10072,23 +10072,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
       <c r="R14" s="12" t="s">
         <v>90</v>
       </c>
@@ -10098,22 +10098,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="96"/>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="155"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
       <c r="R15" s="12" t="s">
         <v>172</v>
       </c>
@@ -10124,21 +10124,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="96"/>
       <c r="C16" s="99"/>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="148"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="147"/>
       <c r="R16" s="12" t="s">
         <v>173</v>
       </c>
@@ -10174,21 +10174,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="148"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="147"/>
       <c r="R18" s="12" t="s">
         <v>177</v>
       </c>
@@ -10199,21 +10199,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="96"/>
       <c r="C19" s="97"/>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="148"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="147"/>
       <c r="R19" s="12" t="s">
         <v>179</v>
       </c>
@@ -10224,21 +10224,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="96"/>
       <c r="C20" s="97"/>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="148"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="147"/>
       <c r="R20" s="12" t="s">
         <v>181</v>
       </c>
@@ -10249,21 +10249,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="96"/>
       <c r="C21" s="97"/>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="148"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="147"/>
       <c r="R21" s="12" t="s">
         <v>183</v>
       </c>
@@ -10274,105 +10274,105 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="96"/>
       <c r="C22" s="97"/>
-      <c r="D22" s="147" t="s">
+      <c r="D22" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="148"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="147"/>
       <c r="R22" s="12"/>
       <c r="S22" s="95"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="148"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="147"/>
       <c r="R23" s="12"/>
       <c r="S23" s="95"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="96"/>
       <c r="C24" s="97"/>
-      <c r="D24" s="147" t="s">
+      <c r="D24" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="148"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="147"/>
       <c r="R24" s="12"/>
       <c r="S24" s="95"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="96"/>
       <c r="C25" s="97"/>
-      <c r="D25" s="147" t="s">
+      <c r="D25" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="148"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="147"/>
       <c r="R25" s="12"/>
       <c r="S25" s="95"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="96"/>
       <c r="C26" s="97"/>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="148"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="147"/>
       <c r="R26" s="12"/>
       <c r="S26" s="95"/>
     </row>
@@ -10397,148 +10397,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="96"/>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="155"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
       <c r="R28" s="12"/>
       <c r="S28" s="95"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="147"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="96"/>
       <c r="C30" s="97"/>
-      <c r="D30" s="147" t="s">
+      <c r="D30" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="148"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="147"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
-      <c r="D31" s="147" t="s">
+      <c r="D31" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="148"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="147"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="147" t="s">
+      <c r="D32" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="147"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="96"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="156" t="s">
+      <c r="D34" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="157"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="149"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
@@ -11173,22 +11173,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -11203,6 +11187,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11237,23 +11237,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
       <c r="R2" s="12" t="s">
         <v>105</v>
       </c>
@@ -11265,23 +11265,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="R3" s="12" t="s">
         <v>155</v>
       </c>
@@ -11294,22 +11294,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="106"/>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167"/>
       <c r="R4" s="12" t="s">
         <v>99</v>
       </c>
@@ -11322,22 +11322,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106"/>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="167"/>
       <c r="R5" s="12" t="s">
         <v>156</v>
       </c>
@@ -11351,21 +11351,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106"/>
       <c r="C6" s="107"/>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="169"/>
       <c r="R6" s="12" t="s">
         <v>157</v>
       </c>
@@ -11379,21 +11379,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="106"/>
       <c r="C7" s="107"/>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="169"/>
       <c r="R7" s="12" t="s">
         <v>158</v>
       </c>
@@ -11407,21 +11407,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="106"/>
       <c r="C8" s="107"/>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="169"/>
       <c r="R8" s="12" t="s">
         <v>159</v>
       </c>
@@ -11435,21 +11435,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
       <c r="R9" s="12" t="s">
         <v>96</v>
       </c>
@@ -11463,21 +11463,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="169"/>
       <c r="R10" s="12" t="s">
         <v>117</v>
       </c>
@@ -11490,22 +11490,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106"/>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="167"/>
       <c r="R11" s="12" t="s">
         <v>108</v>
       </c>
@@ -11518,22 +11518,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="106"/>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="167"/>
       <c r="R12" s="12" t="s">
         <v>114</v>
       </c>
@@ -11571,23 +11571,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
       <c r="R14" s="12" t="s">
         <v>102</v>
       </c>
@@ -11600,22 +11600,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="106"/>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
       <c r="R15" s="12" t="s">
         <v>160</v>
       </c>
@@ -11629,21 +11629,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="109"/>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="169"/>
       <c r="R16" s="12" t="s">
         <v>161</v>
       </c>
@@ -11685,21 +11685,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169"/>
       <c r="R18" s="64"/>
       <c r="S18" s="95"/>
       <c r="T18" s="95"/>
@@ -11707,21 +11707,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
-      <c r="D19" s="166" t="s">
+      <c r="D19" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="169"/>
       <c r="R19" s="64"/>
       <c r="S19" s="95"/>
       <c r="T19" s="95"/>
@@ -11729,21 +11729,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
-      <c r="D20" s="166" t="s">
+      <c r="D20" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="169"/>
       <c r="R20" s="64"/>
       <c r="S20" s="95"/>
       <c r="T20" s="95"/>
@@ -11751,21 +11751,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="169"/>
       <c r="R21" s="64"/>
       <c r="S21" s="95"/>
       <c r="T21" s="95"/>
@@ -11773,21 +11773,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="107"/>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="169"/>
       <c r="R22" s="64"/>
       <c r="S22" s="95"/>
       <c r="T22" s="95"/>
@@ -11795,21 +11795,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="106"/>
       <c r="C23" s="107"/>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="169"/>
       <c r="R23" s="64"/>
       <c r="S23" s="95"/>
       <c r="T23" s="95"/>
@@ -11817,21 +11817,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="106"/>
       <c r="C24" s="107"/>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="169"/>
       <c r="R24" s="64"/>
       <c r="S24" s="95"/>
       <c r="T24" s="95"/>
@@ -11839,21 +11839,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="106"/>
       <c r="C25" s="107"/>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="169"/>
       <c r="R25" s="64"/>
       <c r="S25" s="95"/>
       <c r="T25" s="95"/>
@@ -11861,21 +11861,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="169"/>
       <c r="R26" s="64"/>
       <c r="S26" s="95"/>
       <c r="T26" s="95"/>
@@ -11883,21 +11883,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="106"/>
       <c r="C27" s="107"/>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="169"/>
       <c r="R27" s="64"/>
       <c r="S27" s="95"/>
       <c r="T27" s="95"/>
@@ -11924,22 +11924,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="106"/>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="167"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
       <c r="T29" s="95"/>
@@ -11947,21 +11947,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="106"/>
       <c r="C30" s="107"/>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="169"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
       <c r="T30" s="95"/>
@@ -11969,21 +11969,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="106"/>
       <c r="C31" s="107"/>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="169"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
       <c r="T31" s="95"/>
@@ -11991,21 +11991,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="106"/>
       <c r="C32" s="107"/>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="169"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
       <c r="T32" s="95"/>
@@ -12013,21 +12013,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="106"/>
       <c r="C33" s="107"/>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="169"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
@@ -12035,21 +12035,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="106"/>
       <c r="C34" s="107"/>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="161"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="171"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
@@ -12057,21 +12057,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="106"/>
       <c r="C35" s="107"/>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="171"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
@@ -12079,21 +12079,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="163"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="173"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
@@ -12170,6 +12170,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -12182,26 +12202,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
+++ b/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -1916,6 +1916,27 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1928,25 +1949,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1958,29 +1982,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1988,41 +1991,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2041,30 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2107,7 +2107,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2312,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2761,7 @@
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
@@ -2840,20 +2840,20 @@
     </row>
     <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="131"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
     </row>
@@ -2861,57 +2861,57 @@
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
+      <c r="L6" s="133"/>
+      <c r="M6" s="133"/>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
-      <c r="B7" s="126" t="str">
+      <c r="B7" s="133" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
-        <v>Kỳ tính thuế: Quý 1 Năm 2014</v>
-      </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
+        <v>Kỳ tính thuế: Quý 2 Năm 2014</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
     </row>
@@ -2972,51 +2972,51 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="127"/>
-      <c r="M11" s="127"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="133" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="133" t="s">
+      <c r="H12" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="133" t="s">
+      <c r="I12" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="134" t="s">
+      <c r="K12" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="133" t="s">
+      <c r="L12" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="133" t="s">
+      <c r="M12" s="124" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="37"/>
@@ -3024,24 +3024,24 @@
     </row>
     <row r="13" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
-      <c r="B14" s="128"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="43" t="s">
         <v>43</v>
       </c>
@@ -3054,16 +3054,16 @@
       <c r="F14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
       <c r="N14" s="37"/>
       <c r="O14" s="123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -3126,7 +3126,7 @@
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="49">
         <f>IF(G17&lt;&gt;"",ROW()-16,"")</f>
@@ -3168,7 +3168,7 @@
       <c r="N17" s="58"/>
       <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="49">
         <f t="shared" ref="B18:B62" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
@@ -3210,7 +3210,7 @@
       <c r="N18" s="58"/>
       <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="49">
         <f t="shared" si="2"/>
@@ -3252,7 +3252,7 @@
       <c r="N19" s="58"/>
       <c r="O19" s="59"/>
     </row>
-    <row r="20" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37"/>
       <c r="B20" s="49">
         <f t="shared" si="2"/>
@@ -3294,7 +3294,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="49">
         <f t="shared" si="2"/>
@@ -3336,7 +3336,7 @@
       <c r="N21" s="58"/>
       <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="49">
         <f t="shared" si="2"/>
@@ -3378,7 +3378,7 @@
       <c r="N22" s="58"/>
       <c r="O22" s="59"/>
     </row>
-    <row r="23" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="49">
         <f t="shared" si="2"/>
@@ -3420,7 +3420,7 @@
       <c r="N23" s="58"/>
       <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="49">
         <f t="shared" si="2"/>
@@ -3462,7 +3462,7 @@
       <c r="N24" s="58"/>
       <c r="O24" s="59"/>
     </row>
-    <row r="25" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="49">
         <f t="shared" si="2"/>
@@ -3504,7 +3504,7 @@
       <c r="N25" s="58"/>
       <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="49">
         <f t="shared" si="2"/>
@@ -3714,7 +3714,7 @@
       <c r="N30" s="58"/>
       <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="49">
         <f t="shared" si="2"/>
@@ -3756,7 +3756,7 @@
       <c r="N31" s="58"/>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="49">
         <f t="shared" si="2"/>
@@ -3798,7 +3798,7 @@
       <c r="N32" s="58"/>
       <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="49">
         <f t="shared" si="2"/>
@@ -3840,7 +3840,7 @@
       <c r="N33" s="58"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="49">
         <f t="shared" si="2"/>
@@ -3882,7 +3882,7 @@
       <c r="N34" s="58"/>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="49">
         <f t="shared" si="2"/>
@@ -3924,7 +3924,7 @@
       <c r="N35" s="58"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="49">
         <f t="shared" si="2"/>
@@ -3966,7 +3966,7 @@
       <c r="N36" s="58"/>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="49">
         <f t="shared" si="2"/>
@@ -4008,7 +4008,7 @@
       <c r="N37" s="58"/>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="49">
         <f t="shared" si="2"/>
@@ -4050,7 +4050,7 @@
       <c r="N38" s="58"/>
       <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="49">
         <f t="shared" si="2"/>
@@ -4092,7 +4092,7 @@
       <c r="N39" s="58"/>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="49">
         <f t="shared" si="2"/>
@@ -4134,7 +4134,7 @@
       <c r="N40" s="58"/>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="49">
         <f t="shared" si="2"/>
@@ -4176,7 +4176,7 @@
       <c r="N41" s="58"/>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="49">
         <f t="shared" si="2"/>
@@ -4218,7 +4218,7 @@
       <c r="N42" s="58"/>
       <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="49">
         <f t="shared" si="2"/>
@@ -4260,7 +4260,7 @@
       <c r="N43" s="58"/>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="49">
         <f t="shared" si="2"/>
@@ -4302,7 +4302,7 @@
       <c r="N44" s="58"/>
       <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="49">
         <f t="shared" si="2"/>
@@ -4344,7 +4344,7 @@
       <c r="N45" s="58"/>
       <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37"/>
       <c r="B46" s="49">
         <f t="shared" si="2"/>
@@ -4386,7 +4386,7 @@
       <c r="N46" s="58"/>
       <c r="O46" s="59"/>
     </row>
-    <row r="47" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="49">
         <f t="shared" si="2"/>
@@ -4428,7 +4428,7 @@
       <c r="N47" s="58"/>
       <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37"/>
       <c r="B48" s="49">
         <f t="shared" si="2"/>
@@ -4470,7 +4470,7 @@
       <c r="N48" s="58"/>
       <c r="O48" s="59"/>
     </row>
-    <row r="49" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="49">
         <f t="shared" si="2"/>
@@ -4512,7 +4512,7 @@
       <c r="N49" s="58"/>
       <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
       <c r="B50" s="49">
         <f t="shared" si="2"/>
@@ -4638,7 +4638,7 @@
       <c r="N52" s="58"/>
       <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="49">
         <f t="shared" si="2"/>
@@ -5089,12 +5089,12 @@
       <c r="I64" s="71"/>
       <c r="J64" s="73">
         <f>SUBTOTAL(9,J17:J63)</f>
-        <v>397794789</v>
+        <v>169022282</v>
       </c>
       <c r="K64" s="73"/>
       <c r="L64" s="73">
         <f>SUBTOTAL(9,L17:L63)</f>
-        <v>39779539</v>
+        <v>16902226</v>
       </c>
       <c r="M64" s="71"/>
       <c r="N64" s="59"/>
@@ -5349,7 +5349,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="114">
         <f>J64</f>
-        <v>397794789</v>
+        <v>169022282</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="37"/>
@@ -5371,7 +5371,7 @@
       <c r="G79" s="38"/>
       <c r="H79" s="114">
         <f>L64</f>
-        <v>39779539</v>
+        <v>16902226</v>
       </c>
       <c r="I79" s="38"/>
       <c r="J79" s="37"/>
@@ -5410,7 +5410,7 @@
       <c r="I81" s="38"/>
       <c r="J81" s="118" t="str">
         <f>"Bình Dương, "&amp;IF($O$14=1,"Ngày 31 Tháng 03  ",IF($O$14=2,"Ngày 30 Tháng 06  ",IF($O$14=3,"Ngày 30 Tháng 09  ",IF($O$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F62)</f>
-        <v>Bình Dương, Ngày 31 Tháng 03  Năm  2014</v>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2014</v>
       </c>
       <c r="K81" s="37"/>
       <c r="L81" s="37"/>
@@ -5496,11 +5496,16 @@
   <autoFilter ref="A16:Q62">
     <filterColumn colId="12">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -5510,11 +5515,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0"/>
@@ -5532,8 +5532,8 @@
   </sheetPr>
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
     </sheetView>
@@ -5588,66 +5588,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="str">
+      <c r="B7" s="145" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(F26)</f>
-        <v>Kỳ tính thuế: Quý 4 Năm 2014</v>
-      </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
+        <v>Kỳ tính thuế: Quý 2 Năm 2014</v>
+      </c>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -5671,62 +5671,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="141" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="141" t="s">
+      <c r="H12" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="141" t="s">
+      <c r="I12" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="141" t="s">
+      <c r="L12" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="141"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="141"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -5739,14 +5739,14 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
       <c r="N14" s="122">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -5785,16 +5785,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
@@ -5828,16 +5828,16 @@
       <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="138" t="s">
+      <c r="B19" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="26"/>
@@ -5871,16 +5871,16 @@
       <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="138" t="s">
+      <c r="B22" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="26"/>
@@ -5928,7 +5928,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6150,7 +6150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6224,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6372,7 +6372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6483,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6557,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6705,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6742,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6816,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6890,7 +6890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6927,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7038,7 +7038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7075,7 +7075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7112,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7186,7 +7186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7260,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7334,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7371,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7408,7 +7408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7482,7 +7482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7519,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7556,7 +7556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7630,7 +7630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7667,7 +7667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7704,7 +7704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7741,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -9546,26 +9546,26 @@
       <c r="I124" s="29"/>
       <c r="J124" s="30">
         <f>SUBTOTAL(9,J26:J123)</f>
-        <v>436029258</v>
+        <v>185857151</v>
       </c>
       <c r="K124" s="30">
         <f>SUBTOTAL(9,K26:K123)</f>
-        <v>43602926</v>
+        <v>18685715</v>
       </c>
       <c r="L124" s="116"/>
     </row>
     <row r="125" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="126" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="138" t="s">
+      <c r="B126" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="139"/>
-      <c r="D126" s="139"/>
-      <c r="E126" s="139"/>
-      <c r="F126" s="139"/>
-      <c r="G126" s="139"/>
-      <c r="H126" s="139"/>
-      <c r="I126" s="139"/>
+      <c r="C126" s="136"/>
+      <c r="D126" s="136"/>
+      <c r="E126" s="136"/>
+      <c r="F126" s="136"/>
+      <c r="G126" s="136"/>
+      <c r="H126" s="136"/>
+      <c r="I126" s="136"/>
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
       <c r="L126" s="26"/>
@@ -9609,7 +9609,7 @@
       <c r="G129" s="16"/>
       <c r="H129" s="114">
         <f>J124</f>
-        <v>436029258</v>
+        <v>185857151</v>
       </c>
       <c r="I129" s="16"/>
       <c r="L129" s="16"/>
@@ -9625,7 +9625,7 @@
       <c r="G130" s="16"/>
       <c r="H130" s="114">
         <f>K124</f>
-        <v>43602926</v>
+        <v>18685715</v>
       </c>
       <c r="I130" s="16"/>
       <c r="L130" s="16"/>
@@ -9661,7 +9661,7 @@
       <c r="H133" s="16"/>
       <c r="I133" s="118" t="str">
         <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F122)</f>
-        <v>Bình Dương, Ngày 31 Tháng 12  Năm  2014</v>
+        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2014</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -9715,11 +9715,16 @@
   <autoFilter ref="A25:L123">
     <filterColumn colId="11">
       <filters>
-        <filter val="1"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="17">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B126:I126"/>
@@ -9732,11 +9737,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -9774,23 +9774,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
       <c r="R2" s="12" t="s">
         <v>149</v>
       </c>
@@ -9799,23 +9799,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
       <c r="R3" s="12" t="s">
         <v>140</v>
       </c>
@@ -9825,22 +9825,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="96"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="151"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="155"/>
       <c r="R4" s="12" t="s">
         <v>142</v>
       </c>
@@ -9850,22 +9850,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="96"/>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="151"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="155"/>
       <c r="R5" s="12" t="s">
         <v>144</v>
       </c>
@@ -9876,21 +9876,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="96"/>
       <c r="C6" s="97"/>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="148"/>
       <c r="R6" s="12" t="s">
         <v>163</v>
       </c>
@@ -9901,21 +9901,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
       <c r="C7" s="97"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="148"/>
       <c r="R7" s="12" t="s">
         <v>146</v>
       </c>
@@ -9926,21 +9926,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="96"/>
       <c r="C8" s="97"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
       <c r="R8" s="12" t="s">
         <v>151</v>
       </c>
@@ -9951,21 +9951,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="96"/>
       <c r="C9" s="97"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="148"/>
       <c r="R9" s="12" t="s">
         <v>165</v>
       </c>
@@ -9976,21 +9976,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="96"/>
       <c r="C10" s="97"/>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="148"/>
       <c r="R10" s="12" t="s">
         <v>93</v>
       </c>
@@ -10000,22 +10000,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="96"/>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="155"/>
       <c r="R11" s="12" t="s">
         <v>166</v>
       </c>
@@ -10025,22 +10025,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="96"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="155"/>
       <c r="R12" s="12" t="s">
         <v>168</v>
       </c>
@@ -10072,23 +10072,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="R14" s="12" t="s">
         <v>90</v>
       </c>
@@ -10098,22 +10098,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="96"/>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="155"/>
       <c r="R15" s="12" t="s">
         <v>172</v>
       </c>
@@ -10124,21 +10124,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="96"/>
       <c r="C16" s="99"/>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="148"/>
       <c r="R16" s="12" t="s">
         <v>173</v>
       </c>
@@ -10174,21 +10174,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="148"/>
       <c r="R18" s="12" t="s">
         <v>177</v>
       </c>
@@ -10199,21 +10199,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="96"/>
       <c r="C19" s="97"/>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="148"/>
       <c r="R19" s="12" t="s">
         <v>179</v>
       </c>
@@ -10224,21 +10224,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="96"/>
       <c r="C20" s="97"/>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="148"/>
       <c r="R20" s="12" t="s">
         <v>181</v>
       </c>
@@ -10249,21 +10249,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="96"/>
       <c r="C21" s="97"/>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="148"/>
       <c r="R21" s="12" t="s">
         <v>183</v>
       </c>
@@ -10274,105 +10274,105 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="96"/>
       <c r="C22" s="97"/>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="148"/>
       <c r="R22" s="12"/>
       <c r="S22" s="95"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="148"/>
       <c r="R23" s="12"/>
       <c r="S23" s="95"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="96"/>
       <c r="C24" s="97"/>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="148"/>
       <c r="R24" s="12"/>
       <c r="S24" s="95"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="96"/>
       <c r="C25" s="97"/>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="148"/>
       <c r="R25" s="12"/>
       <c r="S25" s="95"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="96"/>
       <c r="C26" s="97"/>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="148"/>
       <c r="R26" s="12"/>
       <c r="S26" s="95"/>
     </row>
@@ -10397,148 +10397,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="96"/>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="155"/>
       <c r="R28" s="12"/>
       <c r="S28" s="95"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="148"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="96"/>
       <c r="C30" s="97"/>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="148"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="148"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="146" t="s">
+      <c r="D32" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="148"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="96"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="152" t="s">
+      <c r="D33" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="149"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="157"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
@@ -11173,6 +11173,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -11187,22 +11203,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11237,23 +11237,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
       <c r="R2" s="12" t="s">
         <v>105</v>
       </c>
@@ -11265,23 +11265,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
       <c r="R3" s="12" t="s">
         <v>155</v>
       </c>
@@ -11294,22 +11294,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="106"/>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="167"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165"/>
       <c r="R4" s="12" t="s">
         <v>99</v>
       </c>
@@ -11322,22 +11322,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106"/>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="167"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="165"/>
       <c r="R5" s="12" t="s">
         <v>156</v>
       </c>
@@ -11351,21 +11351,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106"/>
       <c r="C6" s="107"/>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="169"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="167"/>
       <c r="R6" s="12" t="s">
         <v>157</v>
       </c>
@@ -11379,21 +11379,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="106"/>
       <c r="C7" s="107"/>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="169"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="167"/>
       <c r="R7" s="12" t="s">
         <v>158</v>
       </c>
@@ -11407,21 +11407,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="106"/>
       <c r="C8" s="107"/>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
       <c r="R8" s="12" t="s">
         <v>159</v>
       </c>
@@ -11435,21 +11435,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
       <c r="R9" s="12" t="s">
         <v>96</v>
       </c>
@@ -11463,21 +11463,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="169"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="167"/>
       <c r="R10" s="12" t="s">
         <v>117</v>
       </c>
@@ -11490,22 +11490,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106"/>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="165"/>
       <c r="R11" s="12" t="s">
         <v>108</v>
       </c>
@@ -11518,22 +11518,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="106"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="165"/>
       <c r="R12" s="12" t="s">
         <v>114</v>
       </c>
@@ -11571,23 +11571,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
       <c r="R14" s="12" t="s">
         <v>102</v>
       </c>
@@ -11600,22 +11600,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="106"/>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="165"/>
       <c r="R15" s="12" t="s">
         <v>160</v>
       </c>
@@ -11629,21 +11629,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="109"/>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="168"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="167"/>
       <c r="R16" s="12" t="s">
         <v>161</v>
       </c>
@@ -11685,21 +11685,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="167"/>
       <c r="R18" s="64"/>
       <c r="S18" s="95"/>
       <c r="T18" s="95"/>
@@ -11707,21 +11707,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="169"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="167"/>
       <c r="R19" s="64"/>
       <c r="S19" s="95"/>
       <c r="T19" s="95"/>
@@ -11729,21 +11729,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="169"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="167"/>
       <c r="R20" s="64"/>
       <c r="S20" s="95"/>
       <c r="T20" s="95"/>
@@ -11751,21 +11751,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="167"/>
       <c r="R21" s="64"/>
       <c r="S21" s="95"/>
       <c r="T21" s="95"/>
@@ -11773,21 +11773,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="107"/>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="167"/>
       <c r="R22" s="64"/>
       <c r="S22" s="95"/>
       <c r="T22" s="95"/>
@@ -11795,21 +11795,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="106"/>
       <c r="C23" s="107"/>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="167"/>
       <c r="R23" s="64"/>
       <c r="S23" s="95"/>
       <c r="T23" s="95"/>
@@ -11817,21 +11817,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="106"/>
       <c r="C24" s="107"/>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="167"/>
       <c r="R24" s="64"/>
       <c r="S24" s="95"/>
       <c r="T24" s="95"/>
@@ -11839,21 +11839,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="106"/>
       <c r="C25" s="107"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="167"/>
       <c r="R25" s="64"/>
       <c r="S25" s="95"/>
       <c r="T25" s="95"/>
@@ -11861,21 +11861,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="167"/>
       <c r="R26" s="64"/>
       <c r="S26" s="95"/>
       <c r="T26" s="95"/>
@@ -11883,21 +11883,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="106"/>
       <c r="C27" s="107"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="167"/>
       <c r="R27" s="64"/>
       <c r="S27" s="95"/>
       <c r="T27" s="95"/>
@@ -11924,22 +11924,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="106"/>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="167"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="165"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
       <c r="T29" s="95"/>
@@ -11947,21 +11947,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="106"/>
       <c r="C30" s="107"/>
-      <c r="D30" s="168" t="s">
+      <c r="D30" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="169"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="167"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
       <c r="T30" s="95"/>
@@ -11969,21 +11969,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="106"/>
       <c r="C31" s="107"/>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="168"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="167"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
       <c r="T31" s="95"/>
@@ -11991,21 +11991,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="106"/>
       <c r="C32" s="107"/>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="167"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
       <c r="T32" s="95"/>
@@ -12013,21 +12013,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="106"/>
       <c r="C33" s="107"/>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="167"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
@@ -12035,21 +12035,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="106"/>
       <c r="C34" s="107"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="171"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="161"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
@@ -12057,21 +12057,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="106"/>
       <c r="C35" s="107"/>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="171"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="161"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
@@ -12079,21 +12079,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
-      <c r="D36" s="172" t="s">
+      <c r="D36" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="173"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="163"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
@@ -12170,14 +12170,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -12190,18 +12194,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
+++ b/SO SACH/3702076037/2014/BANGKE GTGT - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Huong dan MV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$L$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$16:$Q$62</definedName>
     <definedName name="DSBR">'Huong dan BR'!$R$2:$S$66</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$50</definedName>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1211,6 +1211,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1916,6 +1917,18 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,17 +1950,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1973,23 +1983,29 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,20 +2025,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2035,36 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2107,7 +2108,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2313,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,15 +2757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,7 +2783,7 @@
     <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2840,20 +2841,20 @@
     </row>
     <row r="4" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37"/>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
     </row>
@@ -2861,57 +2862,57 @@
       <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="37"/>
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="126" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;O14&amp;" Năm "&amp;YEAR(F17)</f>
         <v>Kỳ tính thuế: Quý 2 Năm 2014</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
     </row>
@@ -2972,51 +2973,51 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37"/>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="124" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="124" t="s">
+      <c r="H12" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="124" t="s">
+      <c r="I12" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="124" t="s">
+      <c r="J12" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="K12" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="124" t="s">
+      <c r="L12" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="124" t="s">
+      <c r="M12" s="128" t="s">
         <v>6</v>
       </c>
       <c r="N12" s="37"/>
@@ -3024,24 +3025,24 @@
     </row>
     <row r="13" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37"/>
-      <c r="B14" s="126"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="43" t="s">
         <v>43</v>
       </c>
@@ -3054,13 +3055,13 @@
       <c r="F14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
       <c r="N14" s="37"/>
       <c r="O14" s="123">
         <v>2</v>
@@ -3126,7 +3127,7 @@
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="49">
         <f>IF(G17&lt;&gt;"",ROW()-16,"")</f>
@@ -3165,10 +3166,13 @@
       <c r="M17" s="57">
         <v>1</v>
       </c>
-      <c r="N17" s="58"/>
+      <c r="N17" s="58">
+        <f>MONTH(F17)</f>
+        <v>1</v>
+      </c>
       <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="49">
         <f t="shared" ref="B18:B62" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
@@ -3207,10 +3211,13 @@
       <c r="M18" s="57">
         <v>1</v>
       </c>
-      <c r="N18" s="58"/>
+      <c r="N18" s="58">
+        <f t="shared" ref="N18:N62" si="3">MONTH(F18)</f>
+        <v>2</v>
+      </c>
       <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="49">
         <f t="shared" si="2"/>
@@ -3249,7 +3256,10 @@
       <c r="M19" s="57">
         <v>1</v>
       </c>
-      <c r="N19" s="58"/>
+      <c r="N19" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3291,10 +3301,13 @@
       <c r="M20" s="66">
         <v>2</v>
       </c>
-      <c r="N20" s="58"/>
+      <c r="N20" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="49">
         <f t="shared" si="2"/>
@@ -3333,7 +3346,10 @@
       <c r="M21" s="57">
         <v>1</v>
       </c>
-      <c r="N21" s="58"/>
+      <c r="N21" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3375,7 +3391,10 @@
       <c r="M22" s="66">
         <v>2</v>
       </c>
-      <c r="N22" s="58"/>
+      <c r="N22" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3417,7 +3436,10 @@
       <c r="M23" s="66">
         <v>2</v>
       </c>
-      <c r="N23" s="58"/>
+      <c r="N23" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3481,10 @@
       <c r="M24" s="66">
         <v>2</v>
       </c>
-      <c r="N24" s="58"/>
+      <c r="N24" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O24" s="59"/>
     </row>
     <row r="25" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3501,7 +3526,10 @@
       <c r="M25" s="66">
         <v>2</v>
       </c>
-      <c r="N25" s="58"/>
+      <c r="N25" s="58">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="O25" s="59"/>
     </row>
     <row r="26" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3543,10 +3571,13 @@
       <c r="M26" s="66">
         <v>2</v>
       </c>
-      <c r="N26" s="58"/>
+      <c r="N26" s="58">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="O26" s="59"/>
     </row>
-    <row r="27" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="49">
         <f t="shared" si="2"/>
@@ -3585,10 +3616,13 @@
       <c r="M27" s="66">
         <v>3</v>
       </c>
-      <c r="N27" s="58"/>
+      <c r="N27" s="58">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="49">
         <f t="shared" si="2"/>
@@ -3627,10 +3661,13 @@
       <c r="M28" s="66">
         <v>3</v>
       </c>
-      <c r="N28" s="58"/>
+      <c r="N28" s="58">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="49">
         <f t="shared" si="2"/>
@@ -3669,10 +3706,13 @@
       <c r="M29" s="66">
         <v>3</v>
       </c>
-      <c r="N29" s="58"/>
+      <c r="N29" s="58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="49">
         <f t="shared" si="2"/>
@@ -3711,10 +3751,13 @@
       <c r="M30" s="66">
         <v>4</v>
       </c>
-      <c r="N30" s="58"/>
+      <c r="N30" s="58">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="49">
         <f t="shared" si="2"/>
@@ -3753,10 +3796,13 @@
       <c r="M31" s="57">
         <v>1</v>
       </c>
-      <c r="N31" s="58"/>
+      <c r="N31" s="58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="49">
         <f t="shared" si="2"/>
@@ -3795,10 +3841,13 @@
       <c r="M32" s="57">
         <v>1</v>
       </c>
-      <c r="N32" s="58"/>
+      <c r="N32" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="49">
         <f t="shared" si="2"/>
@@ -3837,10 +3886,13 @@
       <c r="M33" s="57">
         <v>1</v>
       </c>
-      <c r="N33" s="58"/>
+      <c r="N33" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="49">
         <f t="shared" si="2"/>
@@ -3879,10 +3931,13 @@
       <c r="M34" s="57">
         <v>1</v>
       </c>
-      <c r="N34" s="58"/>
+      <c r="N34" s="58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="49">
         <f t="shared" si="2"/>
@@ -3921,10 +3976,13 @@
       <c r="M35" s="57">
         <v>1</v>
       </c>
-      <c r="N35" s="58"/>
+      <c r="N35" s="58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="49">
         <f t="shared" si="2"/>
@@ -3963,10 +4021,13 @@
       <c r="M36" s="57">
         <v>1</v>
       </c>
-      <c r="N36" s="58"/>
+      <c r="N36" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37"/>
       <c r="B37" s="49">
         <f t="shared" si="2"/>
@@ -4005,10 +4066,13 @@
       <c r="M37" s="57">
         <v>1</v>
       </c>
-      <c r="N37" s="58"/>
+      <c r="N37" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="49">
         <f t="shared" si="2"/>
@@ -4047,10 +4111,13 @@
       <c r="M38" s="57">
         <v>1</v>
       </c>
-      <c r="N38" s="58"/>
+      <c r="N38" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="37"/>
       <c r="B39" s="49">
         <f t="shared" si="2"/>
@@ -4089,10 +4156,13 @@
       <c r="M39" s="57">
         <v>1</v>
       </c>
-      <c r="N39" s="58"/>
+      <c r="N39" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="49">
         <f t="shared" si="2"/>
@@ -4131,10 +4201,13 @@
       <c r="M40" s="57">
         <v>1</v>
       </c>
-      <c r="N40" s="58"/>
+      <c r="N40" s="58">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="37"/>
       <c r="B41" s="49">
         <f t="shared" si="2"/>
@@ -4173,10 +4246,13 @@
       <c r="M41" s="57">
         <v>1</v>
       </c>
-      <c r="N41" s="58"/>
+      <c r="N41" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="49">
         <f t="shared" si="2"/>
@@ -4215,10 +4291,13 @@
       <c r="M42" s="57">
         <v>1</v>
       </c>
-      <c r="N42" s="58"/>
+      <c r="N42" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="49">
         <f t="shared" si="2"/>
@@ -4257,10 +4336,13 @@
       <c r="M43" s="57">
         <v>1</v>
       </c>
-      <c r="N43" s="58"/>
+      <c r="N43" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="49">
         <f t="shared" si="2"/>
@@ -4299,7 +4381,10 @@
       <c r="M44" s="57">
         <v>1</v>
       </c>
-      <c r="N44" s="58"/>
+      <c r="N44" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O44" s="59"/>
     </row>
     <row r="45" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,7 +4426,10 @@
       <c r="M45" s="66">
         <v>2</v>
       </c>
-      <c r="N45" s="58"/>
+      <c r="N45" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O45" s="59"/>
     </row>
     <row r="46" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4383,7 +4471,10 @@
       <c r="M46" s="66">
         <v>2</v>
       </c>
-      <c r="N46" s="58"/>
+      <c r="N46" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O46" s="59"/>
     </row>
     <row r="47" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4425,7 +4516,10 @@
       <c r="M47" s="66">
         <v>2</v>
       </c>
-      <c r="N47" s="58"/>
+      <c r="N47" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O47" s="59"/>
     </row>
     <row r="48" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4467,7 +4561,10 @@
       <c r="M48" s="66">
         <v>2</v>
       </c>
-      <c r="N48" s="58"/>
+      <c r="N48" s="58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="O48" s="59"/>
     </row>
     <row r="49" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4509,7 +4606,10 @@
       <c r="M49" s="66">
         <v>2</v>
       </c>
-      <c r="N49" s="58"/>
+      <c r="N49" s="58">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="O49" s="59"/>
     </row>
     <row r="50" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4520,7 +4620,7 @@
       </c>
       <c r="C50" s="67"/>
       <c r="D50" s="62" t="str">
-        <f t="shared" ref="D50:D62" si="3">IF(ISNA(VLOOKUP(G50,DSMV,3,0)),"",VLOOKUP(G50,DSMV,3,0))</f>
+        <f t="shared" ref="D50:D62" si="4">IF(ISNA(VLOOKUP(G50,DSMV,3,0)),"",VLOOKUP(G50,DSMV,3,0))</f>
         <v>TL/13P</v>
       </c>
       <c r="E50" s="61" t="s">
@@ -4533,7 +4633,7 @@
         <v>99</v>
       </c>
       <c r="H50" s="94" t="str">
-        <f t="shared" ref="H50:H62" si="4">IF(ISNA(VLOOKUP(G50,DSMV,2,0)),"",VLOOKUP(G50,DSMV,2,0))</f>
+        <f t="shared" ref="H50:H62" si="5">IF(ISNA(VLOOKUP(G50,DSMV,2,0)),"",VLOOKUP(G50,DSMV,2,0))</f>
         <v>0312363175</v>
       </c>
       <c r="I50" s="64" t="s">
@@ -4551,10 +4651,13 @@
       <c r="M50" s="66">
         <v>2</v>
       </c>
-      <c r="N50" s="58"/>
+      <c r="N50" s="58">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
       <c r="O50" s="59"/>
     </row>
-    <row r="51" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37"/>
       <c r="B51" s="49">
         <f t="shared" si="2"/>
@@ -4562,7 +4665,7 @@
       </c>
       <c r="C51" s="67"/>
       <c r="D51" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TP/13P</v>
       </c>
       <c r="E51" s="61" t="s">
@@ -4575,7 +4678,7 @@
         <v>156</v>
       </c>
       <c r="H51" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3701864807</v>
       </c>
       <c r="I51" s="64" t="s">
@@ -4593,10 +4696,13 @@
       <c r="M51" s="66">
         <v>3</v>
       </c>
-      <c r="N51" s="58"/>
+      <c r="N51" s="58">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
       <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37"/>
       <c r="B52" s="49">
         <f t="shared" si="2"/>
@@ -4604,7 +4710,7 @@
       </c>
       <c r="C52" s="67"/>
       <c r="D52" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TL/13P</v>
       </c>
       <c r="E52" s="61" t="s">
@@ -4617,7 +4723,7 @@
         <v>99</v>
       </c>
       <c r="H52" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312363175</v>
       </c>
       <c r="I52" s="64" t="s">
@@ -4635,10 +4741,13 @@
       <c r="M52" s="66">
         <v>3</v>
       </c>
-      <c r="N52" s="58"/>
+      <c r="N52" s="58">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
       <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="37"/>
       <c r="B53" s="49">
         <f t="shared" si="2"/>
@@ -4646,20 +4755,20 @@
       </c>
       <c r="C53" s="67"/>
       <c r="D53" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TP/13P</v>
       </c>
       <c r="E53" s="61" t="s">
         <v>308</v>
       </c>
       <c r="F53" s="92">
-        <v>41862</v>
+        <v>41709</v>
       </c>
       <c r="G53" s="64" t="s">
         <v>156</v>
       </c>
       <c r="H53" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3701864807</v>
       </c>
       <c r="I53" s="64" t="s">
@@ -4677,10 +4786,13 @@
       <c r="M53" s="57">
         <v>1</v>
       </c>
-      <c r="N53" s="58"/>
+      <c r="N53" s="58">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="37"/>
       <c r="B54" s="49">
         <f t="shared" si="2"/>
@@ -4688,7 +4800,7 @@
       </c>
       <c r="C54" s="67"/>
       <c r="D54" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TT/14P</v>
       </c>
       <c r="E54" s="61" t="s">
@@ -4701,7 +4813,7 @@
         <v>157</v>
       </c>
       <c r="H54" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312534511</v>
       </c>
       <c r="I54" s="64" t="s">
@@ -4719,10 +4831,13 @@
       <c r="M54" s="66">
         <v>3</v>
       </c>
-      <c r="N54" s="58"/>
+      <c r="N54" s="58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="O54" s="59"/>
     </row>
-    <row r="55" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="49">
         <f t="shared" si="2"/>
@@ -4730,7 +4845,7 @@
       </c>
       <c r="C55" s="67"/>
       <c r="D55" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TT/14P</v>
       </c>
       <c r="E55" s="61" t="s">
@@ -4743,7 +4858,7 @@
         <v>157</v>
       </c>
       <c r="H55" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312534511</v>
       </c>
       <c r="I55" s="64" t="s">
@@ -4761,10 +4876,13 @@
       <c r="M55" s="66">
         <v>3</v>
       </c>
-      <c r="N55" s="58"/>
+      <c r="N55" s="58">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="49">
         <f t="shared" si="2"/>
@@ -4772,7 +4890,7 @@
       </c>
       <c r="C56" s="67"/>
       <c r="D56" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TT/14P</v>
       </c>
       <c r="E56" s="61" t="s">
@@ -4785,7 +4903,7 @@
         <v>157</v>
       </c>
       <c r="H56" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312534511</v>
       </c>
       <c r="I56" s="64" t="s">
@@ -4803,10 +4921,13 @@
       <c r="M56" s="66">
         <v>4</v>
       </c>
-      <c r="N56" s="58"/>
+      <c r="N56" s="58">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="O56" s="59"/>
     </row>
-    <row r="57" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="37"/>
       <c r="B57" s="49">
         <f t="shared" si="2"/>
@@ -4814,7 +4935,7 @@
       </c>
       <c r="C57" s="67"/>
       <c r="D57" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TT/14P</v>
       </c>
       <c r="E57" s="61" t="s">
@@ -4827,7 +4948,7 @@
         <v>157</v>
       </c>
       <c r="H57" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312534511</v>
       </c>
       <c r="I57" s="64" t="s">
@@ -4845,10 +4966,13 @@
       <c r="M57" s="66">
         <v>4</v>
       </c>
-      <c r="N57" s="58"/>
+      <c r="N57" s="58">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="37"/>
       <c r="B58" s="49">
         <f t="shared" si="2"/>
@@ -4856,7 +4980,7 @@
       </c>
       <c r="C58" s="67"/>
       <c r="D58" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TT/14P</v>
       </c>
       <c r="E58" s="61" t="s">
@@ -4869,7 +4993,7 @@
         <v>157</v>
       </c>
       <c r="H58" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312534511</v>
       </c>
       <c r="I58" s="64" t="s">
@@ -4887,10 +5011,13 @@
       <c r="M58" s="66">
         <v>4</v>
       </c>
-      <c r="N58" s="58"/>
+      <c r="N58" s="58">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="O58" s="59"/>
     </row>
-    <row r="59" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="37"/>
       <c r="B59" s="49">
         <f t="shared" si="2"/>
@@ -4898,7 +5025,7 @@
       </c>
       <c r="C59" s="67"/>
       <c r="D59" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HT/14P</v>
       </c>
       <c r="E59" s="61" t="s">
@@ -4911,7 +5038,7 @@
         <v>158</v>
       </c>
       <c r="H59" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312408820</v>
       </c>
       <c r="I59" s="64" t="s">
@@ -4929,10 +5056,13 @@
       <c r="M59" s="66">
         <v>4</v>
       </c>
-      <c r="N59" s="58"/>
+      <c r="N59" s="58">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="37"/>
       <c r="B60" s="49">
         <f t="shared" si="2"/>
@@ -4940,7 +5070,7 @@
       </c>
       <c r="C60" s="67"/>
       <c r="D60" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HT/14P</v>
       </c>
       <c r="E60" s="61" t="s">
@@ -4953,7 +5083,7 @@
         <v>158</v>
       </c>
       <c r="H60" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312408820</v>
       </c>
       <c r="I60" s="64" t="s">
@@ -4971,10 +5101,13 @@
       <c r="M60" s="66">
         <v>4</v>
       </c>
-      <c r="N60" s="58"/>
+      <c r="N60" s="58">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="O60" s="59"/>
     </row>
-    <row r="61" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="37"/>
       <c r="B61" s="49">
         <f t="shared" si="2"/>
@@ -4982,7 +5115,7 @@
       </c>
       <c r="C61" s="67"/>
       <c r="D61" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>HT/14P</v>
       </c>
       <c r="E61" s="61" t="s">
@@ -4995,7 +5128,7 @@
         <v>158</v>
       </c>
       <c r="H61" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0312408820</v>
       </c>
       <c r="I61" s="64" t="s">
@@ -5013,10 +5146,13 @@
       <c r="M61" s="66">
         <v>4</v>
       </c>
-      <c r="N61" s="58"/>
+      <c r="N61" s="58">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
       <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="1:15" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="37"/>
       <c r="B62" s="49">
         <f t="shared" si="2"/>
@@ -5024,7 +5160,7 @@
       </c>
       <c r="C62" s="67"/>
       <c r="D62" s="62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>TP/11P</v>
       </c>
       <c r="E62" s="61" t="s">
@@ -5037,7 +5173,7 @@
         <v>159</v>
       </c>
       <c r="H62" s="94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3700791874</v>
       </c>
       <c r="I62" s="64" t="s">
@@ -5055,7 +5191,10 @@
       <c r="M62" s="66">
         <v>4</v>
       </c>
-      <c r="N62" s="58"/>
+      <c r="N62" s="58">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
       <c r="O62" s="59"/>
     </row>
     <row r="63" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5089,12 +5228,12 @@
       <c r="I64" s="71"/>
       <c r="J64" s="73">
         <f>SUBTOTAL(9,J17:J63)</f>
-        <v>169022282</v>
+        <v>810981455</v>
       </c>
       <c r="K64" s="73"/>
       <c r="L64" s="73">
         <f>SUBTOTAL(9,L17:L63)</f>
-        <v>16902226</v>
+        <v>81098203</v>
       </c>
       <c r="M64" s="71"/>
       <c r="N64" s="59"/>
@@ -5349,7 +5488,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="114">
         <f>J64</f>
-        <v>169022282</v>
+        <v>810981455</v>
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="37"/>
@@ -5371,7 +5510,7 @@
       <c r="G79" s="38"/>
       <c r="H79" s="114">
         <f>L64</f>
-        <v>16902226</v>
+        <v>81098203</v>
       </c>
       <c r="I79" s="38"/>
       <c r="J79" s="37"/>
@@ -5493,19 +5632,8 @@
       <c r="O85" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:Q62">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A16:Q62"/>
   <mergeCells count="14">
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -5515,6 +5643,11 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0"/>
@@ -5527,15 +5660,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomLeft" activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5588,66 +5721,66 @@
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
-      <c r="L6" s="145"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="str">
+      <c r="B7" s="137" t="str">
         <f>"Kỳ tính thuế: Quý "&amp;N14&amp;" Năm "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý 2 Năm 2014</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -5671,62 +5804,62 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="138" t="s">
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="138" t="s">
+      <c r="L12" s="141" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="138"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
     </row>
     <row r="14" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="138"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
@@ -5739,12 +5872,12 @@
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
       <c r="N14" s="122">
         <v>2</v>
       </c>
@@ -5785,21 +5918,21 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="135" t="s">
+      <c r="B16" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5812,7 +5945,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>11</v>
       </c>
@@ -5827,22 +5960,22 @@
       <c r="K18" s="25"/>
       <c r="L18" s="24"/>
     </row>
-    <row r="19" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+    <row r="19" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -5855,7 +5988,7 @@
       <c r="K20" s="8"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
         <v>11</v>
       </c>
@@ -5870,22 +6003,22 @@
       <c r="K21" s="25"/>
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="135" t="s">
+    <row r="22" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="26"/>
     </row>
-    <row r="23" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5898,7 +6031,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
         <v>11</v>
       </c>
@@ -5913,7 +6046,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="120" t="s">
         <v>14</v>
       </c>
@@ -5928,7 +6061,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
@@ -5964,8 +6097,12 @@
       <c r="L26" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M26" s="15">
+        <f>MONTH(F26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
@@ -6001,8 +6138,12 @@
       <c r="L27" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M27" s="15">
+        <f t="shared" ref="M27:M90" si="2">MONTH(F27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -6038,8 +6179,12 @@
       <c r="L28" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6075,8 +6220,12 @@
       <c r="L29" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M29" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6112,8 +6261,12 @@
       <c r="L30" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M30" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -6149,8 +6302,12 @@
       <c r="L31" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M31" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6186,8 +6343,12 @@
       <c r="L32" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M32" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6223,8 +6384,12 @@
       <c r="L33" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6260,8 +6425,12 @@
       <c r="L34" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M34" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6297,8 +6466,12 @@
       <c r="L35" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M35" s="15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6334,8 +6507,12 @@
       <c r="L36" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M36" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6371,8 +6548,12 @@
       <c r="L37" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M37" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6408,8 +6589,12 @@
       <c r="L38" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6445,8 +6630,12 @@
       <c r="L39" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M39" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6482,8 +6671,12 @@
       <c r="L40" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6519,8 +6712,12 @@
       <c r="L41" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M41" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6556,8 +6753,12 @@
       <c r="L42" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6593,8 +6794,12 @@
       <c r="L43" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6630,8 +6835,12 @@
       <c r="L44" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6667,8 +6876,12 @@
       <c r="L45" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M45" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6704,8 +6917,12 @@
       <c r="L46" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M46" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6741,8 +6958,12 @@
       <c r="L47" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M47" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6778,8 +6999,12 @@
       <c r="L48" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6815,8 +7040,12 @@
       <c r="L49" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M49" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -6852,8 +7081,12 @@
       <c r="L50" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M50" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -6874,7 +7107,7 @@
         <v>140</v>
       </c>
       <c r="H51" s="35" t="str">
-        <f t="shared" ref="H51:H114" si="2">IF(ISNA(VLOOKUP(G51,DSBR,2,0)),"",VLOOKUP(G51,DSBR,2,0))</f>
+        <f t="shared" ref="H51:H114" si="3">IF(ISNA(VLOOKUP(G51,DSBR,2,0)),"",VLOOKUP(G51,DSBR,2,0))</f>
         <v>0305002280-001</v>
       </c>
       <c r="I51" s="13" t="s">
@@ -6889,8 +7122,12 @@
       <c r="L51" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M51" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -6911,7 +7148,7 @@
         <v>140</v>
       </c>
       <c r="H52" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I52" s="13" t="s">
@@ -6926,8 +7163,12 @@
       <c r="L52" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M52" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -6948,7 +7189,7 @@
         <v>142</v>
       </c>
       <c r="H53" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I53" s="13" t="s">
@@ -6963,8 +7204,12 @@
       <c r="L53" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M53" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -6985,7 +7230,7 @@
         <v>140</v>
       </c>
       <c r="H54" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I54" s="13" t="s">
@@ -7000,8 +7245,12 @@
       <c r="L54" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M54" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -7022,7 +7271,7 @@
         <v>140</v>
       </c>
       <c r="H55" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I55" s="13" t="s">
@@ -7037,8 +7286,12 @@
       <c r="L55" s="115">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" s="15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -7059,7 +7312,7 @@
         <v>140</v>
       </c>
       <c r="H56" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I56" s="13" t="s">
@@ -7074,8 +7327,12 @@
       <c r="L56" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M56" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -7096,7 +7353,7 @@
         <v>140</v>
       </c>
       <c r="H57" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I57" s="13" t="s">
@@ -7111,8 +7368,12 @@
       <c r="L57" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M57" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -7133,7 +7394,7 @@
         <v>168</v>
       </c>
       <c r="H58" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702223034</v>
       </c>
       <c r="I58" s="13" t="s">
@@ -7148,8 +7409,12 @@
       <c r="L58" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -7170,7 +7435,7 @@
         <v>140</v>
       </c>
       <c r="H59" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I59" s="13" t="s">
@@ -7185,8 +7450,12 @@
       <c r="L59" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M59" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -7207,7 +7476,7 @@
         <v>142</v>
       </c>
       <c r="H60" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I60" s="13" t="s">
@@ -7222,8 +7491,12 @@
       <c r="L60" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M60" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -7244,7 +7517,7 @@
         <v>140</v>
       </c>
       <c r="H61" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I61" s="13" t="s">
@@ -7259,8 +7532,12 @@
       <c r="L61" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M61" s="15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -7281,7 +7558,7 @@
         <v>142</v>
       </c>
       <c r="H62" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I62" s="13" t="s">
@@ -7296,8 +7573,12 @@
       <c r="L62" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M62" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -7318,7 +7599,7 @@
         <v>170</v>
       </c>
       <c r="H63" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0300105356</v>
       </c>
       <c r="I63" s="13" t="s">
@@ -7333,8 +7614,12 @@
       <c r="L63" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M63" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -7355,7 +7640,7 @@
         <v>140</v>
       </c>
       <c r="H64" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I64" s="13" t="s">
@@ -7370,8 +7655,12 @@
       <c r="L64" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M64" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -7392,7 +7681,7 @@
         <v>140</v>
       </c>
       <c r="H65" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I65" s="13" t="s">
@@ -7407,8 +7696,12 @@
       <c r="L65" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M65" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -7429,7 +7722,7 @@
         <v>90</v>
       </c>
       <c r="H66" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700358798</v>
       </c>
       <c r="I66" s="13" t="s">
@@ -7444,8 +7737,12 @@
       <c r="L66" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -7466,7 +7763,7 @@
         <v>172</v>
       </c>
       <c r="H67" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3701201729</v>
       </c>
       <c r="I67" s="13" t="s">
@@ -7481,8 +7778,12 @@
       <c r="L67" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M67" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7503,7 +7804,7 @@
         <v>179</v>
       </c>
       <c r="H68" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700339107</v>
       </c>
       <c r="I68" s="13" t="s">
@@ -7518,8 +7819,12 @@
       <c r="L68" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M68" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7540,7 +7845,7 @@
         <v>142</v>
       </c>
       <c r="H69" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I69" s="13" t="s">
@@ -7555,8 +7860,12 @@
       <c r="L69" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M69" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7577,7 +7886,7 @@
         <v>142</v>
       </c>
       <c r="H70" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I70" s="13" t="s">
@@ -7592,8 +7901,12 @@
       <c r="L70" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M70" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7614,7 +7927,7 @@
         <v>142</v>
       </c>
       <c r="H71" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I71" s="13" t="s">
@@ -7629,8 +7942,12 @@
       <c r="L71" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M71" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7651,7 +7968,7 @@
         <v>173</v>
       </c>
       <c r="H72" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0312319257</v>
       </c>
       <c r="I72" s="13" t="s">
@@ -7666,8 +7983,12 @@
       <c r="L72" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M72" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7688,7 +8009,7 @@
         <v>173</v>
       </c>
       <c r="H73" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0312319257</v>
       </c>
       <c r="I73" s="13" t="s">
@@ -7703,8 +8024,12 @@
       <c r="L73" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M73" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7725,7 +8050,7 @@
         <v>140</v>
       </c>
       <c r="H74" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I74" s="13" t="s">
@@ -7740,8 +8065,12 @@
       <c r="L74" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M74" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7762,7 +8091,7 @@
         <v>173</v>
       </c>
       <c r="H75" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0312319257</v>
       </c>
       <c r="I75" s="13" t="s">
@@ -7777,8 +8106,12 @@
       <c r="L75" s="66">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M75" s="15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7799,7 +8132,7 @@
         <v>175</v>
       </c>
       <c r="H76" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0312675375</v>
       </c>
       <c r="I76" s="13" t="s">
@@ -7814,8 +8147,12 @@
       <c r="L76" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M76" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="10">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7836,7 +8173,7 @@
         <v>163</v>
       </c>
       <c r="H77" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I77" s="13" t="s">
@@ -7851,8 +8188,12 @@
       <c r="L77" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M77" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="10">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7873,7 +8214,7 @@
         <v>142</v>
       </c>
       <c r="H78" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I78" s="13" t="s">
@@ -7888,8 +8229,12 @@
       <c r="L78" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M78" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="10">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7910,7 +8255,7 @@
         <v>163</v>
       </c>
       <c r="H79" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I79" s="13" t="s">
@@ -7925,8 +8270,12 @@
       <c r="L79" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M79" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7947,7 +8296,7 @@
         <v>142</v>
       </c>
       <c r="H80" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I80" s="13" t="s">
@@ -7962,8 +8311,12 @@
       <c r="L80" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="10">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7984,7 +8337,7 @@
         <v>163</v>
       </c>
       <c r="H81" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I81" s="13" t="s">
@@ -7999,8 +8352,12 @@
       <c r="L81" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="10">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -8021,7 +8378,7 @@
         <v>165</v>
       </c>
       <c r="H82" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3701828703</v>
       </c>
       <c r="I82" s="13" t="s">
@@ -8036,8 +8393,12 @@
       <c r="L82" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8058,7 +8419,7 @@
         <v>142</v>
       </c>
       <c r="H83" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I83" s="13" t="s">
@@ -8073,8 +8434,12 @@
       <c r="L83" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="10">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8095,7 +8460,7 @@
         <v>183</v>
       </c>
       <c r="H84" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0310885779</v>
       </c>
       <c r="I84" s="13" t="s">
@@ -8110,8 +8475,12 @@
       <c r="L84" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="10">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8132,7 +8501,7 @@
         <v>163</v>
       </c>
       <c r="H85" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I85" s="13" t="s">
@@ -8147,8 +8516,12 @@
       <c r="L85" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M85" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="10">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8169,7 +8542,7 @@
         <v>142</v>
       </c>
       <c r="H86" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I86" s="13" t="s">
@@ -8184,8 +8557,12 @@
       <c r="L86" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M86" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="10">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8206,7 +8583,7 @@
         <v>163</v>
       </c>
       <c r="H87" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I87" s="13" t="s">
@@ -8221,8 +8598,12 @@
       <c r="L87" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M87" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="10">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8243,7 +8624,7 @@
         <v>179</v>
       </c>
       <c r="H88" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700339107</v>
       </c>
       <c r="I88" s="13" t="s">
@@ -8258,8 +8639,12 @@
       <c r="L88" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M88" s="15">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="10">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8280,7 +8665,7 @@
         <v>163</v>
       </c>
       <c r="H89" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I89" s="13" t="s">
@@ -8295,8 +8680,12 @@
       <c r="L89" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M89" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="10">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8317,7 +8706,7 @@
         <v>142</v>
       </c>
       <c r="H90" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I90" s="13" t="s">
@@ -8332,10 +8721,14 @@
       <c r="L90" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M90" s="15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="10">
-        <f t="shared" ref="B91:B123" si="3">IF(G91&lt;&gt;"",ROW()-25,"")</f>
+        <f t="shared" ref="B91:B123" si="4">IF(G91&lt;&gt;"",ROW()-25,"")</f>
         <v>66</v>
       </c>
       <c r="C91" s="33" t="s">
@@ -8354,7 +8747,7 @@
         <v>140</v>
       </c>
       <c r="H91" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I91" s="13" t="s">
@@ -8369,10 +8762,14 @@
       <c r="L91" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M91" s="15">
+        <f t="shared" ref="M91:M122" si="5">MONTH(F91)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="C92" s="33" t="s">
@@ -8391,7 +8788,7 @@
         <v>140</v>
       </c>
       <c r="H92" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I92" s="13" t="s">
@@ -8406,10 +8803,14 @@
       <c r="L92" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M92" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C93" s="33" t="s">
@@ -8428,7 +8829,7 @@
         <v>181</v>
       </c>
       <c r="H93" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3603195428</v>
       </c>
       <c r="I93" s="13" t="s">
@@ -8443,10 +8844,14 @@
       <c r="L93" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M93" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="C94" s="33" t="s">
@@ -8465,7 +8870,7 @@
         <v>177</v>
       </c>
       <c r="H94" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702196486</v>
       </c>
       <c r="I94" s="13" t="s">
@@ -8480,10 +8885,14 @@
       <c r="L94" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M94" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C95" s="33" t="s">
@@ -8502,7 +8911,7 @@
         <v>177</v>
       </c>
       <c r="H95" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702196486</v>
       </c>
       <c r="I95" s="13" t="s">
@@ -8517,10 +8926,14 @@
       <c r="L95" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M95" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="C96" s="33" t="s">
@@ -8539,7 +8952,7 @@
         <v>177</v>
       </c>
       <c r="H96" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702196486</v>
       </c>
       <c r="I96" s="13" t="s">
@@ -8554,10 +8967,14 @@
       <c r="L96" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M96" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="C97" s="33" t="s">
@@ -8576,7 +8993,7 @@
         <v>177</v>
       </c>
       <c r="H97" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702196486</v>
       </c>
       <c r="I97" s="13" t="s">
@@ -8591,10 +9008,14 @@
       <c r="L97" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M97" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C98" s="33" t="s">
@@ -8613,7 +9034,7 @@
         <v>179</v>
       </c>
       <c r="H98" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700339107</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -8628,10 +9049,14 @@
       <c r="L98" s="66">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M98" s="15">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C99" s="33" t="s">
@@ -8650,7 +9075,7 @@
         <v>140</v>
       </c>
       <c r="H99" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -8665,10 +9090,14 @@
       <c r="L99" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M99" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C100" s="33" t="s">
@@ -8687,7 +9116,7 @@
         <v>142</v>
       </c>
       <c r="H100" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I100" s="13" t="s">
@@ -8702,10 +9131,14 @@
       <c r="L100" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M100" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C101" s="33" t="s">
@@ -8724,7 +9157,7 @@
         <v>140</v>
       </c>
       <c r="H101" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I101" s="13" t="s">
@@ -8739,10 +9172,14 @@
       <c r="L101" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M101" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="C102" s="33" t="s">
@@ -8761,7 +9198,7 @@
         <v>140</v>
       </c>
       <c r="H102" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I102" s="13" t="s">
@@ -8776,10 +9213,14 @@
       <c r="L102" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M102" s="15">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C103" s="33" t="s">
@@ -8798,7 +9239,7 @@
         <v>140</v>
       </c>
       <c r="H103" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I103" s="13" t="s">
@@ -8813,10 +9254,14 @@
       <c r="L103" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M103" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="C104" s="33" t="s">
@@ -8835,7 +9280,7 @@
         <v>140</v>
       </c>
       <c r="H104" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I104" s="13" t="s">
@@ -8850,10 +9295,14 @@
       <c r="L104" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M104" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C105" s="33" t="s">
@@ -8872,7 +9321,7 @@
         <v>163</v>
       </c>
       <c r="H105" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I105" s="13" t="s">
@@ -8887,10 +9336,14 @@
       <c r="L105" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M105" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C106" s="33" t="s">
@@ -8909,7 +9362,7 @@
         <v>142</v>
       </c>
       <c r="H106" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I106" s="13" t="s">
@@ -8924,10 +9377,14 @@
       <c r="L106" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M106" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="C107" s="33" t="s">
@@ -8946,7 +9403,7 @@
         <v>140</v>
       </c>
       <c r="H107" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I107" s="13" t="s">
@@ -8961,10 +9418,14 @@
       <c r="L107" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M107" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C108" s="33" t="s">
@@ -8983,7 +9444,7 @@
         <v>163</v>
       </c>
       <c r="H108" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I108" s="13" t="s">
@@ -8998,10 +9459,14 @@
       <c r="L108" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M108" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="C109" s="33" t="s">
@@ -9020,7 +9485,7 @@
         <v>163</v>
       </c>
       <c r="H109" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I109" s="13" t="s">
@@ -9035,10 +9500,14 @@
       <c r="L109" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M109" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="C110" s="33" t="s">
@@ -9057,7 +9526,7 @@
         <v>140</v>
       </c>
       <c r="H110" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I110" s="13" t="s">
@@ -9072,10 +9541,14 @@
       <c r="L110" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M110" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="C111" s="33" t="s">
@@ -9094,7 +9567,7 @@
         <v>142</v>
       </c>
       <c r="H111" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3702209047</v>
       </c>
       <c r="I111" s="13" t="s">
@@ -9109,10 +9582,14 @@
       <c r="L111" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M111" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="C112" s="33" t="s">
@@ -9131,7 +9608,7 @@
         <v>179</v>
       </c>
       <c r="H112" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700339107</v>
       </c>
       <c r="I112" s="13" t="s">
@@ -9146,10 +9623,14 @@
       <c r="L112" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M112" s="15">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C113" s="33" t="s">
@@ -9168,7 +9649,7 @@
         <v>140</v>
       </c>
       <c r="H113" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0305002280-001</v>
       </c>
       <c r="I113" s="13" t="s">
@@ -9183,10 +9664,14 @@
       <c r="L113" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M113" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="C114" s="33" t="s">
@@ -9205,7 +9690,7 @@
         <v>163</v>
       </c>
       <c r="H114" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3700529186</v>
       </c>
       <c r="I114" s="13" t="s">
@@ -9220,10 +9705,14 @@
       <c r="L114" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M114" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="C115" s="33" t="s">
@@ -9242,7 +9731,7 @@
         <v>163</v>
       </c>
       <c r="H115" s="35" t="str">
-        <f t="shared" ref="H115:H121" si="4">IF(ISNA(VLOOKUP(G115,DSBR,2,0)),"",VLOOKUP(G115,DSBR,2,0))</f>
+        <f t="shared" ref="H115:H121" si="6">IF(ISNA(VLOOKUP(G115,DSBR,2,0)),"",VLOOKUP(G115,DSBR,2,0))</f>
         <v>3700529186</v>
       </c>
       <c r="I115" s="13" t="s">
@@ -9257,10 +9746,14 @@
       <c r="L115" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M115" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C116" s="33" t="s">
@@ -9279,7 +9772,7 @@
         <v>142</v>
       </c>
       <c r="H116" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3702209047</v>
       </c>
       <c r="I116" s="13" t="s">
@@ -9294,10 +9787,14 @@
       <c r="L116" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M116" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C117" s="33" t="s">
@@ -9316,7 +9813,7 @@
         <v>142</v>
       </c>
       <c r="H117" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3702209047</v>
       </c>
       <c r="I117" s="13" t="s">
@@ -9331,10 +9828,14 @@
       <c r="L117" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M117" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C118" s="33" t="s">
@@ -9353,7 +9854,7 @@
         <v>163</v>
       </c>
       <c r="H118" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3700529186</v>
       </c>
       <c r="I118" s="13" t="s">
@@ -9368,10 +9869,14 @@
       <c r="L118" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M118" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="C119" s="33" t="s">
@@ -9390,7 +9895,7 @@
         <v>140</v>
       </c>
       <c r="H119" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0305002280-001</v>
       </c>
       <c r="I119" s="13" t="s">
@@ -9405,10 +9910,14 @@
       <c r="L119" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M119" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C120" s="33" t="s">
@@ -9427,7 +9936,7 @@
         <v>140</v>
       </c>
       <c r="H120" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0305002280-001</v>
       </c>
       <c r="I120" s="13" t="s">
@@ -9442,10 +9951,14 @@
       <c r="L120" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M120" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="C121" s="33" t="s">
@@ -9464,7 +9977,7 @@
         <v>142</v>
       </c>
       <c r="H121" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3702209047</v>
       </c>
       <c r="I121" s="13" t="s">
@@ -9479,10 +9992,14 @@
       <c r="L121" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M121" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C122" s="33" t="s">
@@ -9501,7 +10018,7 @@
         <v>179</v>
       </c>
       <c r="H122" s="35" t="str">
-        <f t="shared" ref="H122" si="5">IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
+        <f t="shared" ref="H122" si="7">IF(ISNA(VLOOKUP(G122,DSBR,2,0)),"",VLOOKUP(G122,DSBR,2,0))</f>
         <v>3700339107</v>
       </c>
       <c r="I122" s="13" t="s">
@@ -9516,10 +10033,14 @@
       <c r="L122" s="66">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M122" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C123" s="33"/>
@@ -9533,7 +10054,7 @@
       <c r="K123" s="14"/>
       <c r="L123" s="115"/>
     </row>
-    <row r="124" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="29" t="s">
         <v>11</v>
       </c>
@@ -9546,31 +10067,31 @@
       <c r="I124" s="29"/>
       <c r="J124" s="30">
         <f>SUBTOTAL(9,J26:J123)</f>
-        <v>185857151</v>
+        <v>944722084</v>
       </c>
       <c r="K124" s="30">
         <f>SUBTOTAL(9,K26:K123)</f>
-        <v>18685715</v>
+        <v>94572209</v>
       </c>
       <c r="L124" s="116"/>
     </row>
-    <row r="125" spans="2:12" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="135" t="s">
+    <row r="125" spans="2:13" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
-      <c r="E126" s="136"/>
-      <c r="F126" s="136"/>
-      <c r="G126" s="136"/>
-      <c r="H126" s="136"/>
-      <c r="I126" s="136"/>
+      <c r="C126" s="139"/>
+      <c r="D126" s="139"/>
+      <c r="E126" s="139"/>
+      <c r="F126" s="139"/>
+      <c r="G126" s="139"/>
+      <c r="H126" s="139"/>
+      <c r="I126" s="139"/>
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
       <c r="L126" s="26"/>
     </row>
-    <row r="127" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -9583,7 +10104,7 @@
       <c r="K127" s="8"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="2:12" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:13" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="24" t="s">
         <v>11</v>
       </c>
@@ -9609,7 +10130,7 @@
       <c r="G129" s="16"/>
       <c r="H129" s="114">
         <f>J124</f>
-        <v>185857151</v>
+        <v>944722084</v>
       </c>
       <c r="I129" s="16"/>
       <c r="L129" s="16"/>
@@ -9625,7 +10146,7 @@
       <c r="G130" s="16"/>
       <c r="H130" s="114">
         <f>K124</f>
-        <v>18685715</v>
+        <v>94572209</v>
       </c>
       <c r="I130" s="16"/>
       <c r="L130" s="16"/>
@@ -9712,19 +10233,8 @@
       <c r="L137" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A25:L123">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A25:N123"/>
   <mergeCells count="17">
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B126:I126"/>
@@ -9737,6 +10247,11 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
@@ -9774,23 +10289,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="151"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="156"/>
       <c r="R2" s="12" t="s">
         <v>149</v>
       </c>
@@ -9799,23 +10314,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="154"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
       <c r="R3" s="12" t="s">
         <v>140</v>
       </c>
@@ -9825,22 +10340,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="96"/>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="155"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="151"/>
       <c r="R4" s="12" t="s">
         <v>142</v>
       </c>
@@ -9850,22 +10365,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="96"/>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="146"/>
-      <c r="P5" s="155"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="151"/>
       <c r="R5" s="12" t="s">
         <v>144</v>
       </c>
@@ -9876,21 +10391,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="96"/>
       <c r="C6" s="97"/>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
-      <c r="P6" s="148"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="147"/>
       <c r="R6" s="12" t="s">
         <v>163</v>
       </c>
@@ -9901,21 +10416,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="96"/>
       <c r="C7" s="97"/>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="148"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="146"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="146"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="146"/>
+      <c r="P7" s="147"/>
       <c r="R7" s="12" t="s">
         <v>146</v>
       </c>
@@ -9926,21 +10441,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="96"/>
       <c r="C8" s="97"/>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
       <c r="R8" s="12" t="s">
         <v>151</v>
       </c>
@@ -9951,21 +10466,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="96"/>
       <c r="C9" s="97"/>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
-      <c r="O9" s="147"/>
-      <c r="P9" s="148"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="147"/>
       <c r="R9" s="12" t="s">
         <v>165</v>
       </c>
@@ -9976,21 +10491,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="96"/>
       <c r="C10" s="97"/>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="147"/>
-      <c r="P10" s="148"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="147"/>
       <c r="R10" s="12" t="s">
         <v>93</v>
       </c>
@@ -10000,22 +10515,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="96"/>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="155"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="151"/>
       <c r="R11" s="12" t="s">
         <v>166</v>
       </c>
@@ -10025,22 +10540,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="96"/>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="155"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="151"/>
       <c r="R12" s="12" t="s">
         <v>168</v>
       </c>
@@ -10072,23 +10587,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="152" t="s">
+      <c r="B14" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="153"/>
-      <c r="D14" s="153"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="153"/>
-      <c r="I14" s="153"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
+      <c r="L14" s="158"/>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="158"/>
+      <c r="P14" s="159"/>
       <c r="R14" s="12" t="s">
         <v>90</v>
       </c>
@@ -10098,22 +10613,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="96"/>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="155"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="151"/>
       <c r="R15" s="12" t="s">
         <v>172</v>
       </c>
@@ -10124,21 +10639,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="96"/>
       <c r="C16" s="99"/>
-      <c r="D16" s="147" t="s">
+      <c r="D16" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="147"/>
-      <c r="P16" s="148"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="147"/>
       <c r="R16" s="12" t="s">
         <v>173</v>
       </c>
@@ -10174,21 +10689,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="96"/>
       <c r="C18" s="97"/>
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="148"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="147"/>
       <c r="R18" s="12" t="s">
         <v>177</v>
       </c>
@@ -10199,21 +10714,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="96"/>
       <c r="C19" s="97"/>
-      <c r="D19" s="147" t="s">
+      <c r="D19" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="148"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="147"/>
       <c r="R19" s="12" t="s">
         <v>179</v>
       </c>
@@ -10224,21 +10739,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="96"/>
       <c r="C20" s="97"/>
-      <c r="D20" s="147" t="s">
+      <c r="D20" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="148"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="147"/>
       <c r="R20" s="12" t="s">
         <v>181</v>
       </c>
@@ -10249,21 +10764,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="96"/>
       <c r="C21" s="97"/>
-      <c r="D21" s="147" t="s">
+      <c r="D21" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="147"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
-      <c r="O21" s="147"/>
-      <c r="P21" s="148"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="147"/>
       <c r="R21" s="12" t="s">
         <v>183</v>
       </c>
@@ -10274,105 +10789,105 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="96"/>
       <c r="C22" s="97"/>
-      <c r="D22" s="147" t="s">
+      <c r="D22" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="148"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="147"/>
       <c r="R22" s="12"/>
       <c r="S22" s="95"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="96"/>
       <c r="C23" s="97"/>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="148"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="147"/>
       <c r="R23" s="12"/>
       <c r="S23" s="95"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="96"/>
       <c r="C24" s="97"/>
-      <c r="D24" s="147" t="s">
+      <c r="D24" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="148"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="147"/>
       <c r="R24" s="12"/>
       <c r="S24" s="95"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="96"/>
       <c r="C25" s="97"/>
-      <c r="D25" s="147" t="s">
+      <c r="D25" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="148"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="147"/>
       <c r="R25" s="12"/>
       <c r="S25" s="95"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="96"/>
       <c r="C26" s="97"/>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="147"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="148"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="147"/>
       <c r="R26" s="12"/>
       <c r="S26" s="95"/>
     </row>
@@ -10397,148 +10912,148 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="96"/>
-      <c r="C28" s="146" t="s">
+      <c r="C28" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="155"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="151"/>
       <c r="R28" s="12"/>
       <c r="S28" s="95"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="96"/>
       <c r="C29" s="97"/>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="147"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="96"/>
       <c r="C30" s="97"/>
-      <c r="D30" s="147" t="s">
+      <c r="D30" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="148"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="147"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="96"/>
       <c r="C31" s="97"/>
-      <c r="D31" s="147" t="s">
+      <c r="D31" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="148"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="147"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="96"/>
       <c r="C32" s="97"/>
-      <c r="D32" s="147" t="s">
+      <c r="D32" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="147"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
     </row>
     <row r="33" spans="2:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="96"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
-      <c r="M33" s="158"/>
-      <c r="N33" s="158"/>
-      <c r="O33" s="158"/>
-      <c r="P33" s="159"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="152"/>
+      <c r="P33" s="153"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="156" t="s">
+      <c r="D34" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="156"/>
-      <c r="O34" s="156"/>
-      <c r="P34" s="157"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
+      <c r="N34" s="148"/>
+      <c r="O34" s="148"/>
+      <c r="P34" s="149"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
     </row>
@@ -11173,22 +11688,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -11203,6 +11702,22 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11237,23 +11752,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="173"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
       <c r="R2" s="12" t="s">
         <v>105</v>
       </c>
@@ -11265,23 +11780,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
+      <c r="P3" s="162"/>
       <c r="R3" s="12" t="s">
         <v>155</v>
       </c>
@@ -11294,22 +11809,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="106"/>
-      <c r="C4" s="164" t="s">
+      <c r="C4" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="164"/>
-      <c r="O4" s="164"/>
-      <c r="P4" s="165"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="167"/>
       <c r="R4" s="12" t="s">
         <v>99</v>
       </c>
@@ -11322,22 +11837,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106"/>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="165"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="167"/>
       <c r="R5" s="12" t="s">
         <v>156</v>
       </c>
@@ -11351,21 +11866,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106"/>
       <c r="C6" s="107"/>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="169"/>
       <c r="R6" s="12" t="s">
         <v>157</v>
       </c>
@@ -11379,21 +11894,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="106"/>
       <c r="C7" s="107"/>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="166"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="166"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="166"/>
-      <c r="P7" s="167"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
+      <c r="P7" s="169"/>
       <c r="R7" s="12" t="s">
         <v>158</v>
       </c>
@@ -11407,21 +11922,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="106"/>
       <c r="C8" s="107"/>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
-      <c r="N8" s="166"/>
-      <c r="O8" s="166"/>
-      <c r="P8" s="167"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="169"/>
       <c r="R8" s="12" t="s">
         <v>159</v>
       </c>
@@ -11435,21 +11950,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="106"/>
       <c r="C9" s="107"/>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
       <c r="R9" s="12" t="s">
         <v>96</v>
       </c>
@@ -11463,21 +11978,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="106"/>
       <c r="C10" s="107"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="166"/>
-      <c r="N10" s="166"/>
-      <c r="O10" s="166"/>
-      <c r="P10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="169"/>
       <c r="R10" s="12" t="s">
         <v>117</v>
       </c>
@@ -11490,22 +12005,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="106"/>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="166"/>
+      <c r="O11" s="166"/>
+      <c r="P11" s="167"/>
       <c r="R11" s="12" t="s">
         <v>108</v>
       </c>
@@ -11518,22 +12033,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="106"/>
-      <c r="C12" s="164" t="s">
+      <c r="C12" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="166"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="166"/>
+      <c r="O12" s="166"/>
+      <c r="P12" s="167"/>
       <c r="R12" s="12" t="s">
         <v>114</v>
       </c>
@@ -11571,23 +12086,23 @@
       </c>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="161"/>
+      <c r="H14" s="161"/>
+      <c r="I14" s="161"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
       <c r="R14" s="12" t="s">
         <v>102</v>
       </c>
@@ -11600,22 +12115,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="106"/>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="166"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="166"/>
+      <c r="O15" s="166"/>
+      <c r="P15" s="167"/>
       <c r="R15" s="12" t="s">
         <v>160</v>
       </c>
@@ -11629,21 +12144,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="106"/>
       <c r="C16" s="109"/>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="168" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="166"/>
-      <c r="N16" s="166"/>
-      <c r="O16" s="166"/>
-      <c r="P16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="169"/>
       <c r="R16" s="12" t="s">
         <v>161</v>
       </c>
@@ -11685,21 +12200,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="106"/>
       <c r="C18" s="107"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="168" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169"/>
       <c r="R18" s="64"/>
       <c r="S18" s="95"/>
       <c r="T18" s="95"/>
@@ -11707,21 +12222,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="106"/>
       <c r="C19" s="107"/>
-      <c r="D19" s="166" t="s">
+      <c r="D19" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="166"/>
-      <c r="N19" s="166"/>
-      <c r="O19" s="166"/>
-      <c r="P19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
+      <c r="O19" s="168"/>
+      <c r="P19" s="169"/>
       <c r="R19" s="64"/>
       <c r="S19" s="95"/>
       <c r="T19" s="95"/>
@@ -11729,21 +12244,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="106"/>
       <c r="C20" s="107"/>
-      <c r="D20" s="166" t="s">
+      <c r="D20" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="169"/>
       <c r="R20" s="64"/>
       <c r="S20" s="95"/>
       <c r="T20" s="95"/>
@@ -11751,21 +12266,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="106"/>
       <c r="C21" s="107"/>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="166"/>
-      <c r="P21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
+      <c r="M21" s="168"/>
+      <c r="N21" s="168"/>
+      <c r="O21" s="168"/>
+      <c r="P21" s="169"/>
       <c r="R21" s="64"/>
       <c r="S21" s="95"/>
       <c r="T21" s="95"/>
@@ -11773,21 +12288,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="106"/>
       <c r="C22" s="107"/>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="166"/>
-      <c r="M22" s="166"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="166"/>
-      <c r="P22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="168"/>
+      <c r="O22" s="168"/>
+      <c r="P22" s="169"/>
       <c r="R22" s="64"/>
       <c r="S22" s="95"/>
       <c r="T22" s="95"/>
@@ -11795,21 +12310,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="106"/>
       <c r="C23" s="107"/>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="166"/>
-      <c r="P23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
+      <c r="M23" s="168"/>
+      <c r="N23" s="168"/>
+      <c r="O23" s="168"/>
+      <c r="P23" s="169"/>
       <c r="R23" s="64"/>
       <c r="S23" s="95"/>
       <c r="T23" s="95"/>
@@ -11817,21 +12332,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="106"/>
       <c r="C24" s="107"/>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="166"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="166"/>
-      <c r="P24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="169"/>
       <c r="R24" s="64"/>
       <c r="S24" s="95"/>
       <c r="T24" s="95"/>
@@ -11839,21 +12354,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="106"/>
       <c r="C25" s="107"/>
-      <c r="D25" s="166" t="s">
+      <c r="D25" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="166"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="166"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="M25" s="168"/>
+      <c r="N25" s="168"/>
+      <c r="O25" s="168"/>
+      <c r="P25" s="169"/>
       <c r="R25" s="64"/>
       <c r="S25" s="95"/>
       <c r="T25" s="95"/>
@@ -11861,21 +12376,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="106"/>
       <c r="C26" s="107"/>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="166"/>
-      <c r="O26" s="166"/>
-      <c r="P26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
+      <c r="M26" s="168"/>
+      <c r="N26" s="168"/>
+      <c r="O26" s="168"/>
+      <c r="P26" s="169"/>
       <c r="R26" s="64"/>
       <c r="S26" s="95"/>
       <c r="T26" s="95"/>
@@ -11883,21 +12398,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="106"/>
       <c r="C27" s="107"/>
-      <c r="D27" s="166" t="s">
+      <c r="D27" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="166"/>
-      <c r="O27" s="166"/>
-      <c r="P27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
+      <c r="M27" s="168"/>
+      <c r="N27" s="168"/>
+      <c r="O27" s="168"/>
+      <c r="P27" s="169"/>
       <c r="R27" s="64"/>
       <c r="S27" s="95"/>
       <c r="T27" s="95"/>
@@ -11924,22 +12439,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="106"/>
-      <c r="C29" s="164" t="s">
+      <c r="C29" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="164"/>
-      <c r="L29" s="164"/>
-      <c r="M29" s="164"/>
-      <c r="N29" s="164"/>
-      <c r="O29" s="164"/>
-      <c r="P29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="166"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="166"/>
+      <c r="P29" s="167"/>
       <c r="R29" s="12"/>
       <c r="S29" s="95"/>
       <c r="T29" s="95"/>
@@ -11947,21 +12462,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="106"/>
       <c r="C30" s="107"/>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="166"/>
-      <c r="N30" s="166"/>
-      <c r="O30" s="166"/>
-      <c r="P30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
+      <c r="M30" s="168"/>
+      <c r="N30" s="168"/>
+      <c r="O30" s="168"/>
+      <c r="P30" s="169"/>
       <c r="R30" s="12"/>
       <c r="S30" s="95"/>
       <c r="T30" s="95"/>
@@ -11969,21 +12484,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="106"/>
       <c r="C31" s="107"/>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="168" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="166"/>
-      <c r="L31" s="166"/>
-      <c r="M31" s="166"/>
-      <c r="N31" s="166"/>
-      <c r="O31" s="166"/>
-      <c r="P31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
+      <c r="M31" s="168"/>
+      <c r="N31" s="168"/>
+      <c r="O31" s="168"/>
+      <c r="P31" s="169"/>
       <c r="R31" s="12"/>
       <c r="S31" s="95"/>
       <c r="T31" s="95"/>
@@ -11991,21 +12506,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="106"/>
       <c r="C32" s="107"/>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
+      <c r="M32" s="168"/>
+      <c r="N32" s="168"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="169"/>
       <c r="R32" s="12"/>
       <c r="S32" s="95"/>
       <c r="T32" s="95"/>
@@ -12013,21 +12528,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="106"/>
       <c r="C33" s="107"/>
-      <c r="D33" s="166" t="s">
+      <c r="D33" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="168"/>
+      <c r="N33" s="168"/>
+      <c r="O33" s="168"/>
+      <c r="P33" s="169"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
@@ -12035,21 +12550,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="106"/>
       <c r="C34" s="107"/>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="160"/>
-      <c r="P34" s="161"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
+      <c r="M34" s="170"/>
+      <c r="N34" s="170"/>
+      <c r="O34" s="170"/>
+      <c r="P34" s="171"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
@@ -12057,21 +12572,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="106"/>
       <c r="C35" s="107"/>
-      <c r="D35" s="160" t="s">
+      <c r="D35" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="160"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="160"/>
-      <c r="M35" s="160"/>
-      <c r="N35" s="160"/>
-      <c r="O35" s="160"/>
-      <c r="P35" s="161"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="171"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
@@ -12079,21 +12594,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="112"/>
       <c r="C36" s="113"/>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="162"/>
-      <c r="M36" s="162"/>
-      <c r="N36" s="162"/>
-      <c r="O36" s="162"/>
-      <c r="P36" s="163"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="172"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="173"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
@@ -12170,6 +12685,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="C15:P15"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D26:P26"/>
     <mergeCell ref="B14:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -12182,26 +12717,6 @@
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="C11:P11"/>
     <mergeCell ref="C12:P12"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="C15:P15"/>
-    <mergeCell ref="D16:P16"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
